--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf2-Csf2rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Csf2-Csf2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Csf2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>0.690236</v>
       </c>
       <c r="I2">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J2">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.853446</v>
+        <v>13.595825</v>
       </c>
       <c r="N2">
-        <v>37.706892</v>
+        <v>27.19165</v>
       </c>
       <c r="O2">
-        <v>0.1384875367005694</v>
+        <v>0.05267224809548414</v>
       </c>
       <c r="P2">
-        <v>0.09680391537389649</v>
+        <v>0.03575312334118911</v>
       </c>
       <c r="Q2">
-        <v>4.337775717752</v>
+        <v>3.128109288233333</v>
       </c>
       <c r="R2">
-        <v>26.026654306512</v>
+        <v>18.7686557294</v>
       </c>
       <c r="S2">
-        <v>0.06863701083422107</v>
+        <v>0.0112561789805381</v>
       </c>
       <c r="T2">
-        <v>0.05767447110259374</v>
+        <v>0.008237703773757082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -611,10 +611,10 @@
         <v>0.690236</v>
       </c>
       <c r="I3">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J3">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.057082</v>
+        <v>82.69899733333334</v>
       </c>
       <c r="N3">
-        <v>141.171246</v>
+        <v>248.096992</v>
       </c>
       <c r="O3">
-        <v>0.3456566704302601</v>
+        <v>0.3203882151167078</v>
       </c>
       <c r="P3">
-        <v>0.3624252391581763</v>
+        <v>0.3262119935919301</v>
       </c>
       <c r="Q3">
-        <v>10.826830683784</v>
+        <v>19.02727504112356</v>
       </c>
       <c r="R3">
-        <v>97.44147615405599</v>
+        <v>171.245475370112</v>
       </c>
       <c r="S3">
-        <v>0.1713139044745894</v>
+        <v>0.06846768883058164</v>
       </c>
       <c r="T3">
-        <v>0.2159280841270119</v>
+        <v>0.07516092356499809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>0.690236</v>
       </c>
       <c r="I4">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J4">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.042945</v>
+        <v>0.2286895</v>
       </c>
       <c r="N4">
-        <v>0.08588999999999999</v>
+        <v>0.457379</v>
       </c>
       <c r="O4">
-        <v>0.0003154514704423772</v>
+        <v>0.0008859771349537243</v>
       </c>
       <c r="P4">
-        <v>0.0002205031454585005</v>
+        <v>0.0006013878451903335</v>
       </c>
       <c r="Q4">
-        <v>0.009880728339999999</v>
+        <v>0.05261657524066666</v>
       </c>
       <c r="R4">
-        <v>0.05928437003999999</v>
+        <v>0.315699451444</v>
       </c>
       <c r="S4">
-        <v>0.0001563436429751687</v>
+        <v>0.0001893353248493392</v>
       </c>
       <c r="T4">
-        <v>0.0001313728090610538</v>
+        <v>0.0001385628571394983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,10 +735,10 @@
         <v>0.690236</v>
       </c>
       <c r="I5">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J5">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.84769933333333</v>
+        <v>125.4934766666667</v>
       </c>
       <c r="N5">
-        <v>32.543098</v>
+        <v>376.48043</v>
       </c>
       <c r="O5">
-        <v>0.07968151602321095</v>
+        <v>0.4861803926831594</v>
       </c>
       <c r="P5">
-        <v>0.08354704240265733</v>
+        <v>0.4950178179453587</v>
       </c>
       <c r="Q5">
-        <v>2.495824199014222</v>
+        <v>28.87337178683111</v>
       </c>
       <c r="R5">
-        <v>22.462417791128</v>
+        <v>259.86034608148</v>
       </c>
       <c r="S5">
-        <v>0.03949164819356486</v>
+        <v>0.1038978535138531</v>
       </c>
       <c r="T5">
-        <v>0.04977620444532729</v>
+        <v>0.1140546549752107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -797,10 +797,10 @@
         <v>0.690236</v>
       </c>
       <c r="I6">
-        <v>0.4956186850418492</v>
+        <v>0.2137022699341201</v>
       </c>
       <c r="J6">
-        <v>0.5957865534656448</v>
+        <v>0.2304051507653011</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.33704233333334</v>
+        <v>36.10423266666667</v>
       </c>
       <c r="N6">
-        <v>178.011127</v>
+        <v>108.312698</v>
       </c>
       <c r="O6">
-        <v>0.4358588253755172</v>
+        <v>0.1398731669696947</v>
       </c>
       <c r="P6">
-        <v>0.4570032999198115</v>
+        <v>0.1424156772763318</v>
       </c>
       <c r="Q6">
-        <v>13.65218758399689</v>
+        <v>8.306813712969777</v>
       </c>
       <c r="R6">
-        <v>122.869688255972</v>
+        <v>74.76132341672799</v>
       </c>
       <c r="S6">
-        <v>0.2160197778964988</v>
+        <v>0.02989121328429796</v>
       </c>
       <c r="T6">
-        <v>0.2722764209816509</v>
+        <v>0.03281330559419569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.468293</v>
       </c>
       <c r="I7">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J7">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.853446</v>
+        <v>13.595825</v>
       </c>
       <c r="N7">
-        <v>37.706892</v>
+        <v>27.19165</v>
       </c>
       <c r="O7">
-        <v>0.1384875367005694</v>
+        <v>0.05267224809548414</v>
       </c>
       <c r="P7">
-        <v>0.09680391537389649</v>
+        <v>0.03575312334118911</v>
       </c>
       <c r="Q7">
-        <v>4.414468393839</v>
+        <v>3.1834148383625</v>
       </c>
       <c r="R7">
-        <v>17.657873575356</v>
+        <v>12.73365935345</v>
       </c>
       <c r="S7">
-        <v>0.06985052586634835</v>
+        <v>0.01145519030447512</v>
       </c>
       <c r="T7">
-        <v>0.03912944427130276</v>
+        <v>0.005588898598919827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>0.468293</v>
       </c>
       <c r="I8">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J8">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.057082</v>
+        <v>82.69899733333334</v>
       </c>
       <c r="N8">
-        <v>141.171246</v>
+        <v>248.096992</v>
       </c>
       <c r="O8">
-        <v>0.3456566704302601</v>
+        <v>0.3203882151167078</v>
       </c>
       <c r="P8">
-        <v>0.3624252391581763</v>
+        <v>0.3262119935919301</v>
       </c>
       <c r="Q8">
-        <v>11.018251050513</v>
+        <v>19.36368077910933</v>
       </c>
       <c r="R8">
-        <v>66.10950630307801</v>
+        <v>116.182084674656</v>
       </c>
       <c r="S8">
-        <v>0.1743427659556707</v>
+        <v>0.06967821021840263</v>
       </c>
       <c r="T8">
-        <v>0.1464971550311644</v>
+        <v>0.05099318838632534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.468293</v>
       </c>
       <c r="I9">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J9">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.042945</v>
+        <v>0.2286895</v>
       </c>
       <c r="N9">
-        <v>0.08588999999999999</v>
+        <v>0.457379</v>
       </c>
       <c r="O9">
-        <v>0.0003154514704423772</v>
+        <v>0.0008859771349537243</v>
       </c>
       <c r="P9">
-        <v>0.0002205031454585005</v>
+        <v>0.0006013878451903335</v>
       </c>
       <c r="Q9">
-        <v>0.0100554214425</v>
+        <v>0.05354684601175</v>
       </c>
       <c r="R9">
-        <v>0.04022168577</v>
+        <v>0.214187384047</v>
       </c>
       <c r="S9">
-        <v>0.0001591078274672084</v>
+        <v>0.0001926828083720748</v>
       </c>
       <c r="T9">
-        <v>8.913033639744676E-05</v>
+        <v>9.400844936866101E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.468293</v>
       </c>
       <c r="I10">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J10">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.84769933333333</v>
+        <v>125.4934766666667</v>
       </c>
       <c r="N10">
-        <v>32.543098</v>
+        <v>376.48043</v>
       </c>
       <c r="O10">
-        <v>0.07968151602321095</v>
+        <v>0.4861803926831594</v>
       </c>
       <c r="P10">
-        <v>0.08354704240265733</v>
+        <v>0.4950178179453587</v>
       </c>
       <c r="Q10">
-        <v>2.539950831952333</v>
+        <v>29.38385833433167</v>
       </c>
       <c r="R10">
-        <v>15.239704991714</v>
+        <v>176.30315000599</v>
       </c>
       <c r="S10">
-        <v>0.04018986782964609</v>
+        <v>0.1057347867589407</v>
       </c>
       <c r="T10">
-        <v>0.03377083795733004</v>
+        <v>0.07738077489772537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -1107,10 +1107,10 @@
         <v>0.468293</v>
       </c>
       <c r="I11">
-        <v>0.5043813149581506</v>
+        <v>0.2174805655477089</v>
       </c>
       <c r="J11">
-        <v>0.4042134465343553</v>
+        <v>0.1563191709318771</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,338 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.33704233333334</v>
+        <v>36.10423266666667</v>
       </c>
       <c r="N11">
-        <v>178.011127</v>
+        <v>108.312698</v>
       </c>
       <c r="O11">
-        <v>0.4358588253755172</v>
+        <v>0.1398731669696947</v>
       </c>
       <c r="P11">
-        <v>0.4570032999198115</v>
+        <v>0.1424156772763318</v>
       </c>
       <c r="Q11">
-        <v>13.89356078270183</v>
+        <v>8.453679714085668</v>
       </c>
       <c r="R11">
-        <v>83.36136469621101</v>
+        <v>50.722078284514</v>
       </c>
       <c r="S11">
-        <v>0.2198390474790183</v>
+        <v>0.03041969545751832</v>
       </c>
       <c r="T11">
-        <v>0.1847268789381607</v>
+        <v>0.02226230059953796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.83722</v>
+      </c>
+      <c r="I12">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J12">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.595825</v>
+      </c>
+      <c r="N12">
+        <v>27.19165</v>
+      </c>
+      <c r="O12">
+        <v>0.05267224809548414</v>
+      </c>
+      <c r="P12">
+        <v>0.03575312334118911</v>
+      </c>
+      <c r="Q12">
+        <v>8.326173868833335</v>
+      </c>
+      <c r="R12">
+        <v>49.957043213</v>
+      </c>
+      <c r="S12">
+        <v>0.02996087881047092</v>
+      </c>
+      <c r="T12">
+        <v>0.0219265209685122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.83722</v>
+      </c>
+      <c r="I13">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J13">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>82.69899733333334</v>
+      </c>
+      <c r="N13">
+        <v>248.096992</v>
+      </c>
+      <c r="O13">
+        <v>0.3203882151167078</v>
+      </c>
+      <c r="P13">
+        <v>0.3262119935919301</v>
+      </c>
+      <c r="Q13">
+        <v>50.64541729358223</v>
+      </c>
+      <c r="R13">
+        <v>455.80875564224</v>
+      </c>
+      <c r="S13">
+        <v>0.1822423160677235</v>
+      </c>
+      <c r="T13">
+        <v>0.2000578816406067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.83722</v>
+      </c>
+      <c r="I14">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J14">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.2286895</v>
+      </c>
+      <c r="N14">
+        <v>0.457379</v>
+      </c>
+      <c r="O14">
+        <v>0.0008859771349537243</v>
+      </c>
+      <c r="P14">
+        <v>0.0006013878451903335</v>
+      </c>
+      <c r="Q14">
+        <v>0.1400509743966667</v>
+      </c>
+      <c r="R14">
+        <v>0.8403058463799999</v>
+      </c>
+      <c r="S14">
+        <v>0.0005039590017323103</v>
+      </c>
+      <c r="T14">
+        <v>0.0003688165386821741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.83722</v>
+      </c>
+      <c r="I15">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J15">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>125.4934766666667</v>
+      </c>
+      <c r="N15">
+        <v>376.48043</v>
+      </c>
+      <c r="O15">
+        <v>0.4861803926831594</v>
+      </c>
+      <c r="P15">
+        <v>0.4950178179453587</v>
+      </c>
+      <c r="Q15">
+        <v>76.85304173384445</v>
+      </c>
+      <c r="R15">
+        <v>691.6773756046</v>
+      </c>
+      <c r="S15">
+        <v>0.2765477524103656</v>
+      </c>
+      <c r="T15">
+        <v>0.3035823880724225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6124066666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.83722</v>
+      </c>
+      <c r="I16">
+        <v>0.5688171645181709</v>
+      </c>
+      <c r="J16">
+        <v>0.6132756783028217</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>36.10423266666667</v>
+      </c>
+      <c r="N16">
+        <v>108.312698</v>
+      </c>
+      <c r="O16">
+        <v>0.1398731669696947</v>
+      </c>
+      <c r="P16">
+        <v>0.1424156772763318</v>
+      </c>
+      <c r="Q16">
+        <v>22.11047277995111</v>
+      </c>
+      <c r="R16">
+        <v>198.99425501956</v>
+      </c>
+      <c r="S16">
+        <v>0.07956225822787842</v>
+      </c>
+      <c r="T16">
+        <v>0.08734007108259813</v>
       </c>
     </row>
   </sheetData>
